--- a/exported data/immunity_vc.xlsx
+++ b/exported data/immunity_vc.xlsx
@@ -440,7 +440,7 @@
         <v>0.7250000000000003</v>
       </c>
       <c r="E2">
-        <v>0.6532888878219803</v>
+        <v>0.6434941003881957</v>
       </c>
       <c r="F2">
         <v>163324</v>
@@ -449,13 +449,13 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07171111217802006</v>
+        <v>0.08150589961180466</v>
       </c>
       <c r="I2">
-        <v>11712.14568536295</v>
+        <v>13311.86954819838</v>
       </c>
       <c r="J2">
-        <v>7.171111217802006</v>
+        <v>8.150589961180465</v>
       </c>
       <c r="K2" s="3">
         <v>44339</v>
@@ -477,7 +477,7 @@
         <v>0.6999999999999997</v>
       </c>
       <c r="E3">
-        <v>0.6078444431125287</v>
+        <v>0.5957559898401397</v>
       </c>
       <c r="F3">
         <v>37213</v>
@@ -486,13 +486,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.09215555688747101</v>
+        <v>0.1042440101598601</v>
       </c>
       <c r="I3">
-        <v>3429.384738453459</v>
+        <v>3879.232350078873</v>
       </c>
       <c r="J3">
-        <v>9.215555688747102</v>
+        <v>10.42440101598601</v>
       </c>
       <c r="K3" s="3">
         <v>44325</v>
@@ -514,7 +514,7 @@
         <v>0.7045454545454541</v>
       </c>
       <c r="E4">
-        <v>0.6156638691509468</v>
+        <v>0.6080566412439249</v>
       </c>
       <c r="F4">
         <v>11008</v>
@@ -523,13 +523,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0888815853945073</v>
+        <v>0.09648881330152925</v>
       </c>
       <c r="I4">
-        <v>978.4084920227364</v>
+        <v>1062.148856823234</v>
       </c>
       <c r="J4">
-        <v>8.88815853945073</v>
+        <v>9.648881330152925</v>
       </c>
       <c r="K4" s="3">
         <v>44360</v>
@@ -551,7 +551,7 @@
         <v>0.6875</v>
       </c>
       <c r="E5">
-        <v>0.5790284675556092</v>
+        <v>0.5681094425343711</v>
       </c>
       <c r="F5">
         <v>24902</v>
@@ -560,13 +560,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.1084715324443908</v>
+        <v>0.1193905574656289</v>
       </c>
       <c r="I5">
-        <v>2701.15810093022</v>
+        <v>2973.06366200909</v>
       </c>
       <c r="J5">
-        <v>10.84715324443908</v>
+        <v>11.93905574656289</v>
       </c>
       <c r="K5" s="3">
         <v>44332</v>
@@ -588,7 +588,7 @@
         <v>0.7045454545454541</v>
       </c>
       <c r="E6">
-        <v>0.6155741476304235</v>
+        <v>0.6086164332870933</v>
       </c>
       <c r="F6">
         <v>26863</v>
@@ -597,13 +597,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.08897130691503064</v>
+        <v>0.09592902125836089</v>
       </c>
       <c r="I6">
-        <v>2390.036217658468</v>
+        <v>2576.941298063349</v>
       </c>
       <c r="J6">
-        <v>8.897130691503064</v>
+        <v>9.592902125836089</v>
       </c>
       <c r="K6" s="3">
         <v>44353</v>
@@ -625,7 +625,7 @@
         <v>0.7222222222222222</v>
       </c>
       <c r="E7">
-        <v>0.6302893294396688</v>
+        <v>0.6196454235026923</v>
       </c>
       <c r="F7">
         <v>17506</v>
@@ -634,13 +634,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.09193289278255346</v>
+        <v>0.10257679871953</v>
       </c>
       <c r="I7">
-        <v>1609.377221051381</v>
+        <v>1795.709438384092</v>
       </c>
       <c r="J7">
-        <v>9.193289278255346</v>
+        <v>10.257679871953</v>
       </c>
       <c r="K7" s="3">
         <v>44339</v>
@@ -662,7 +662,7 @@
         <v>0.7187500000000003</v>
       </c>
       <c r="E8">
-        <v>0.6335748137754258</v>
+        <v>0.6247781163605933</v>
       </c>
       <c r="F8">
         <v>47168</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.08517518622457454</v>
+        <v>0.09397188363940701</v>
       </c>
       <c r="I8">
-        <v>4017.543183840732</v>
+        <v>4432.46580750355</v>
       </c>
       <c r="J8">
-        <v>8.517518622457454</v>
+        <v>9.3971883639407</v>
       </c>
       <c r="K8" s="3">
         <v>44339</v>
@@ -699,7 +699,7 @@
         <v>0.725806451612903</v>
       </c>
       <c r="E9">
-        <v>0.6285605663360242</v>
+        <v>0.6202734130755703</v>
       </c>
       <c r="F9">
         <v>19380</v>
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.09724588527687883</v>
+        <v>0.1055330385373328</v>
       </c>
       <c r="I9">
-        <v>1884.625256665912</v>
+        <v>2045.230286853509</v>
       </c>
       <c r="J9">
-        <v>9.724588527687883</v>
+        <v>10.55330385373328</v>
       </c>
       <c r="K9" s="3">
         <v>44360</v>
@@ -736,7 +736,7 @@
         <v>0.653846153846154</v>
       </c>
       <c r="E10">
-        <v>0.5541114127562977</v>
+        <v>0.5439672090163286</v>
       </c>
       <c r="F10">
         <v>33407</v>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.09973474108985625</v>
+        <v>0.1098789448298254</v>
       </c>
       <c r="I10">
-        <v>3331.838495588828</v>
+        <v>3670.725909929978</v>
       </c>
       <c r="J10">
-        <v>9.973474108985625</v>
+        <v>10.98789448298254</v>
       </c>
       <c r="K10" s="3">
         <v>44339</v>
@@ -773,7 +773,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="E11">
-        <v>0.6446116396182715</v>
+        <v>0.639679606879217</v>
       </c>
       <c r="F11">
         <v>131815</v>
@@ -782,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0696740746674428</v>
+        <v>0.07460610740649731</v>
       </c>
       <c r="I11">
-        <v>9184.088152288972</v>
+        <v>9834.204047787443</v>
       </c>
       <c r="J11">
-        <v>6.96740746674428</v>
+        <v>7.460610740649731</v>
       </c>
       <c r="K11" s="3">
         <v>44332</v>
@@ -810,7 +810,7 @@
         <v>0.6964285714285711</v>
       </c>
       <c r="E12">
-        <v>0.6362770774714835</v>
+        <v>0.6312031264500475</v>
       </c>
       <c r="F12">
         <v>256886</v>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.06015149395708752</v>
+        <v>0.06522544497852356</v>
       </c>
       <c r="I12">
-        <v>15452.07667666039</v>
+        <v>16755.50365875301</v>
       </c>
       <c r="J12">
-        <v>6.015149395708752</v>
+        <v>6.522544497852357</v>
       </c>
       <c r="K12" s="3">
         <v>44346</v>
@@ -847,7 +847,7 @@
         <v>0.6842105263157898</v>
       </c>
       <c r="E13">
-        <v>0.5890309854391613</v>
+        <v>0.5780834735380191</v>
       </c>
       <c r="F13">
         <v>89968</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.0951795408766285</v>
+        <v>0.1061270527777707</v>
       </c>
       <c r="I13">
-        <v>8563.112933588513</v>
+        <v>9548.038684310473</v>
       </c>
       <c r="J13">
-        <v>9.517954087662851</v>
+        <v>10.61270527777707</v>
       </c>
       <c r="K13" s="3">
         <v>44339</v>
@@ -884,7 +884,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="E14">
-        <v>0.599299066925158</v>
+        <v>0.5897022209967294</v>
       </c>
       <c r="F14">
         <v>206615</v>
@@ -893,13 +893,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.06736759974150874</v>
+        <v>0.07696444566993732</v>
       </c>
       <c r="I14">
-        <v>13919.15662059183</v>
+        <v>15902.0089420941</v>
       </c>
       <c r="J14">
-        <v>6.736759974150875</v>
+        <v>7.696444566993732</v>
       </c>
       <c r="K14" s="3">
         <v>44350</v>
@@ -921,7 +921,7 @@
         <v>0.6904761904761905</v>
       </c>
       <c r="E15">
-        <v>0.6156353777284086</v>
+        <v>0.6044608173022669</v>
       </c>
       <c r="F15">
         <v>81884</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07484081274778187</v>
+        <v>0.0860153731739236</v>
       </c>
       <c r="I15">
-        <v>6128.265111039371</v>
+        <v>7043.28281697356</v>
       </c>
       <c r="J15">
-        <v>7.484081274778188</v>
+        <v>8.60153731739236</v>
       </c>
       <c r="K15" s="3">
         <v>44346</v>
@@ -958,7 +958,7 @@
         <v>0.5</v>
       </c>
       <c r="E16">
-        <v>0.4241131399327843</v>
+        <v>0.4172694408435687</v>
       </c>
       <c r="F16">
         <v>10551</v>
@@ -967,13 +967,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07588686006721568</v>
+        <v>0.08273055915643129</v>
       </c>
       <c r="I16">
-        <v>800.6822605691926</v>
+        <v>872.8901296595066</v>
       </c>
       <c r="J16">
-        <v>7.588686006721568</v>
+        <v>8.273055915643129</v>
       </c>
       <c r="K16" s="3">
         <v>44332</v>
@@ -995,7 +995,7 @@
         <v>0.6500000000000004</v>
       </c>
       <c r="E17">
-        <v>0.5702570914460529</v>
+        <v>0.5639616989687223</v>
       </c>
       <c r="F17">
         <v>69070</v>
@@ -1004,13 +1004,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.0797429085539475</v>
+        <v>0.08603830103127808</v>
       </c>
       <c r="I17">
-        <v>5507.842693821154</v>
+        <v>5942.665452230377</v>
       </c>
       <c r="J17">
-        <v>7.974290855394751</v>
+        <v>8.603830103127807</v>
       </c>
       <c r="K17" s="3">
         <v>44346</v>
@@ -1032,7 +1032,7 @@
         <v>0.6590909090909087</v>
       </c>
       <c r="E18">
-        <v>0.5540672126733067</v>
+        <v>0.5447951195615121</v>
       </c>
       <c r="F18">
         <v>22684</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.105023696417602</v>
+        <v>0.1142957895293967</v>
       </c>
       <c r="I18">
-        <v>2382.357529536884</v>
+        <v>2592.685689684834</v>
       </c>
       <c r="J18">
-        <v>10.5023696417602</v>
+        <v>11.42957895293967</v>
       </c>
       <c r="K18" s="3">
         <v>44339</v>
@@ -1069,7 +1069,7 @@
         <v>0.7199999999999999</v>
       </c>
       <c r="E19">
-        <v>0.6469443993034709</v>
+        <v>0.6355704788199299</v>
       </c>
       <c r="F19">
         <v>157613</v>
@@ -1078,13 +1078,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07305560069652894</v>
+        <v>0.08442952118006997</v>
       </c>
       <c r="I19">
-        <v>11514.51239258202</v>
+        <v>13307.19012175437</v>
       </c>
       <c r="J19">
-        <v>7.305560069652895</v>
+        <v>8.442952118006996</v>
       </c>
       <c r="K19" s="3">
         <v>44346</v>
@@ -1106,7 +1106,7 @@
         <v>0.6590909090909087</v>
       </c>
       <c r="E20">
-        <v>0.5965942212482954</v>
+        <v>0.591371591209968</v>
       </c>
       <c r="F20">
         <v>71338</v>
@@ -1115,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.06249668784261331</v>
+        <v>0.06771931788094077</v>
       </c>
       <c r="I20">
-        <v>4458.388717316348</v>
+        <v>4830.960698990552</v>
       </c>
       <c r="J20">
-        <v>6.249668784261331</v>
+        <v>6.771931788094077</v>
       </c>
       <c r="K20" s="3">
         <v>44332</v>
@@ -1143,7 +1143,7 @@
         <v>0.6578947368421049</v>
       </c>
       <c r="E21">
-        <v>0.5385999944182849</v>
+        <v>0.5293511558741282</v>
       </c>
       <c r="F21">
         <v>27969</v>
@@ -1152,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.11929474242382</v>
+        <v>0.1285435809679767</v>
       </c>
       <c r="I21">
-        <v>3336.554650851821</v>
+        <v>3595.23541609334</v>
       </c>
       <c r="J21">
-        <v>11.929474242382</v>
+        <v>12.85435809679767</v>
       </c>
       <c r="K21" s="3">
         <v>44339</v>
@@ -1180,7 +1180,7 @@
         <v>0.7619047619047619</v>
       </c>
       <c r="E22">
-        <v>0.670281694182529</v>
+        <v>0.6612015304772893</v>
       </c>
       <c r="F22">
         <v>14097</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.09162306772223283</v>
+        <v>0.1007032314274726</v>
       </c>
       <c r="I22">
-        <v>1291.610385680316</v>
+        <v>1419.613453433082</v>
       </c>
       <c r="J22">
-        <v>9.162306772223284</v>
+        <v>10.07032314274726</v>
       </c>
       <c r="K22" s="3">
         <v>44346</v>
@@ -1217,7 +1217,7 @@
         <v>0.6842105263157898</v>
       </c>
       <c r="E23">
-        <v>0.542206387778512</v>
+        <v>0.5340234837163463</v>
       </c>
       <c r="F23">
         <v>10946</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.1420041385372778</v>
+        <v>0.1501870425994435</v>
       </c>
       <c r="I23">
-        <v>1554.377300429043</v>
+        <v>1643.947368293508</v>
       </c>
       <c r="J23">
-        <v>14.20041385372778</v>
+        <v>15.01870425994435</v>
       </c>
       <c r="K23" s="3">
         <v>44339</v>
@@ -1254,7 +1254,7 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="E24">
-        <v>0.6259399596370515</v>
+        <v>0.6141350108074112</v>
       </c>
       <c r="F24">
         <v>97282</v>
@@ -1263,13 +1263,13 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07994239330412489</v>
+        <v>0.09174734213376523</v>
       </c>
       <c r="I24">
-        <v>7776.955905411878</v>
+        <v>8925.364937456949</v>
       </c>
       <c r="J24">
-        <v>7.994239330412489</v>
+        <v>9.174734213376523</v>
       </c>
       <c r="K24" s="3">
         <v>44339</v>
@@ -1291,7 +1291,7 @@
         <v>0.7105263157894733</v>
       </c>
       <c r="E25">
-        <v>0.6207374014034682</v>
+        <v>0.6089148325517239</v>
       </c>
       <c r="F25">
         <v>56068</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.08978891438600511</v>
+        <v>0.1016114832377495</v>
       </c>
       <c r="I25">
-        <v>5034.284851794535</v>
+        <v>5697.152642174138</v>
       </c>
       <c r="J25">
-        <v>8.978891438600511</v>
+        <v>10.16114832377495</v>
       </c>
       <c r="K25" s="3">
         <v>44339</v>
@@ -1328,7 +1328,7 @@
         <v>0.6521739130434783</v>
       </c>
       <c r="E26">
-        <v>0.5644641230444961</v>
+        <v>0.5559585795305597</v>
       </c>
       <c r="F26">
         <v>102491</v>
@@ -1337,13 +1337,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.08770978999898216</v>
+        <v>0.09621533351291856</v>
       </c>
       <c r="I26">
-        <v>8989.46408678568</v>
+        <v>9861.205747072536</v>
       </c>
       <c r="J26">
-        <v>8.770978999898215</v>
+        <v>9.621533351291856</v>
       </c>
       <c r="K26" s="3">
         <v>44353</v>
@@ -1365,7 +1365,7 @@
         <v>0.5294117647058824</v>
       </c>
       <c r="E27">
-        <v>0.4600795499569125</v>
+        <v>0.4501133745527807</v>
       </c>
       <c r="F27">
         <v>332861</v>
@@ -1374,13 +1374,13 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.06933221474896983</v>
+        <v>0.07929839015310169</v>
       </c>
       <c r="I27">
-        <v>23077.99033355685</v>
+        <v>26395.34144475158</v>
       </c>
       <c r="J27">
-        <v>6.933221474896984</v>
+        <v>7.929839015310169</v>
       </c>
       <c r="K27" s="3">
         <v>44346</v>
@@ -1402,7 +1402,7 @@
         <v>0.5750000000000004</v>
       </c>
       <c r="E28">
-        <v>0.4628668274641391</v>
+        <v>0.4570399338527645</v>
       </c>
       <c r="F28">
         <v>26363</v>
@@ -1411,13 +1411,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.1121331725358613</v>
+        <v>0.1179600661472359</v>
       </c>
       <c r="I28">
-        <v>2956.166827562912</v>
+        <v>3109.78122383958</v>
       </c>
       <c r="J28">
-        <v>11.21331725358613</v>
+        <v>11.79600661472359</v>
       </c>
       <c r="K28" s="3">
         <v>44339</v>
@@ -1439,7 +1439,7 @@
         <v>0.75</v>
       </c>
       <c r="E29">
-        <v>0.6745496806945133</v>
+        <v>0.6711434869939545</v>
       </c>
       <c r="F29">
         <v>36222</v>
@@ -1448,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.07545031930548674</v>
+        <v>0.07885651300604546</v>
       </c>
       <c r="I29">
-        <v>2732.961465883341</v>
+        <v>2856.340614104979</v>
       </c>
       <c r="J29">
-        <v>7.545031930548674</v>
+        <v>7.885651300604546</v>
       </c>
       <c r="K29" s="3">
         <v>44339</v>
@@ -1476,7 +1476,7 @@
         <v>0.6315789473684205</v>
       </c>
       <c r="E30">
-        <v>0.5447721092565286</v>
+        <v>0.534613299873242</v>
       </c>
       <c r="F30">
         <v>165381</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.08680683811189183</v>
+        <v>0.09696564749517844</v>
       </c>
       <c r="I30">
-        <v>14356.20169378278</v>
+        <v>16036.27574840011</v>
       </c>
       <c r="J30">
-        <v>8.680683811189184</v>
+        <v>9.696564749517844</v>
       </c>
       <c r="K30" s="3">
         <v>44346</v>
@@ -1513,7 +1513,7 @@
         <v>0.6904761904761905</v>
       </c>
       <c r="E31">
-        <v>0.5989512322711414</v>
+        <v>0.590629626012889</v>
       </c>
       <c r="F31">
         <v>42257</v>
@@ -1522,13 +1522,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0.09152495820504902</v>
+        <v>0.09984656446330142</v>
       </c>
       <c r="I31">
-        <v>3867.570158870757</v>
+        <v>4219.216274525728</v>
       </c>
       <c r="J31">
-        <v>9.152495820504903</v>
+        <v>9.984656446330142</v>
       </c>
       <c r="K31" s="3">
         <v>44353</v>
@@ -1550,7 +1550,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="E32">
-        <v>0.5758765194465866</v>
+        <v>0.5642403708690702</v>
       </c>
       <c r="F32">
         <v>58967</v>
@@ -1559,13 +1559,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.09079014722008016</v>
+        <v>0.1024262957975965</v>
       </c>
       <c r="I32">
-        <v>5353.622611126467</v>
+        <v>6039.771384296875</v>
       </c>
       <c r="J32">
-        <v>9.079014722008017</v>
+        <v>10.24262957975965</v>
       </c>
       <c r="K32" s="3">
         <v>44332</v>
@@ -1587,7 +1587,7 @@
         <v>0.7222222222222222</v>
       </c>
       <c r="E33">
-        <v>0.6635538097241855</v>
+        <v>0.6581163738406666</v>
       </c>
       <c r="F33">
         <v>311848</v>
@@ -1596,13 +1596,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.05866841249803667</v>
+        <v>0.06410584838155564</v>
       </c>
       <c r="I33">
-        <v>18295.62710068774</v>
+        <v>19991.28060609136</v>
       </c>
       <c r="J33">
-        <v>5.866841249803667</v>
+        <v>6.410584838155565</v>
       </c>
       <c r="K33" s="3">
         <v>44353</v>
@@ -1624,7 +1624,7 @@
         <v>0.6999999999999997</v>
       </c>
       <c r="E34">
-        <v>0.6049986891847563</v>
+        <v>0.5943087863597242</v>
       </c>
       <c r="F34">
         <v>52648</v>
@@ -1633,13 +1633,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.09500131081524343</v>
+        <v>0.1056912136402756</v>
       </c>
       <c r="I34">
-        <v>5001.629011800937</v>
+        <v>5564.431015733228</v>
       </c>
       <c r="J34">
-        <v>9.500131081524344</v>
+        <v>10.56912136402756</v>
       </c>
       <c r="K34" s="3">
         <v>44360</v>
@@ -1661,7 +1661,7 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="E35">
-        <v>0.6353610154904849</v>
+        <v>0.6276788368996467</v>
       </c>
       <c r="F35">
         <v>375195</v>
@@ -1670,13 +1670,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.05694667681720744</v>
+        <v>0.06462885540804564</v>
       </c>
       <c r="I35">
-        <v>21366.10840843215</v>
+        <v>24248.42340482168</v>
       </c>
       <c r="J35">
-        <v>5.694667681720745</v>
+        <v>6.462885540804564</v>
       </c>
       <c r="K35" s="3">
         <v>44353</v>
@@ -1698,7 +1698,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="E36">
-        <v>0.5749186537233955</v>
+        <v>0.5655009930057565</v>
       </c>
       <c r="F36">
         <v>66362</v>
@@ -1707,13 +1707,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.09174801294327128</v>
+        <v>0.1011656736609102</v>
       </c>
       <c r="I36">
-        <v>6088.581634941369</v>
+        <v>6713.556435485324</v>
       </c>
       <c r="J36">
-        <v>9.174801294327128</v>
+        <v>10.11656736609102</v>
       </c>
       <c r="K36" s="3">
         <v>44353</v>
@@ -1735,7 +1735,7 @@
         <v>0.6999999999999997</v>
       </c>
       <c r="E37">
-        <v>0.6271441256388318</v>
+        <v>0.6153075153054148</v>
       </c>
       <c r="F37">
         <v>219271</v>
@@ -1744,13 +1744,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>0.07285587436116792</v>
+        <v>0.0846924846945849</v>
       </c>
       <c r="I37">
-        <v>15975.18042704765</v>
+        <v>18570.60581146633</v>
       </c>
       <c r="J37">
-        <v>7.285587436116792</v>
+        <v>8.46924846945849</v>
       </c>
       <c r="K37" s="3">
         <v>44346</v>
@@ -1772,7 +1772,7 @@
         <v>0.5526315789473687</v>
       </c>
       <c r="E38">
-        <v>0.4611423635870588</v>
+        <v>0.4544432834288093</v>
       </c>
       <c r="F38">
         <v>11548</v>
@@ -1781,13 +1781,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.09148921536030991</v>
+        <v>0.0981882955185594</v>
       </c>
       <c r="I38">
-        <v>1056.517458980859</v>
+        <v>1133.878436648324</v>
       </c>
       <c r="J38">
-        <v>9.14892153603099</v>
+        <v>9.81882955185594</v>
       </c>
       <c r="K38" s="3">
         <v>44346</v>
@@ -1809,7 +1809,7 @@
         <v>0.6111111111111109</v>
       </c>
       <c r="E39">
-        <v>0.4807198238215383</v>
+        <v>0.4731139895593413</v>
       </c>
       <c r="F39">
         <v>8509</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.1303912872895727</v>
+        <v>0.1379971215517697</v>
       </c>
       <c r="I39">
-        <v>1109.499463546974</v>
+        <v>1174.217507284008</v>
       </c>
       <c r="J39">
-        <v>13.03912872895727</v>
+        <v>13.79971215517697</v>
       </c>
       <c r="K39" s="3">
         <v>44325</v>
@@ -1846,7 +1846,7 @@
         <v>0.6833333333333328</v>
       </c>
       <c r="E40">
-        <v>0.6037579173943485</v>
+        <v>0.5949402279750449</v>
       </c>
       <c r="F40">
         <v>59328</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.07957541593898432</v>
+        <v>0.08839310535828793</v>
       </c>
       <c r="I40">
-        <v>4721.050276828061</v>
+        <v>5244.186154696507</v>
       </c>
       <c r="J40">
-        <v>7.957541593898432</v>
+        <v>8.839310535828792</v>
       </c>
       <c r="K40" s="3">
         <v>44339</v>
@@ -1883,7 +1883,7 @@
         <v>0.7250000000000003</v>
       </c>
       <c r="E41">
-        <v>0.6405486602309921</v>
+        <v>0.629943981467836</v>
       </c>
       <c r="F41">
         <v>21033</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0.08445133976900821</v>
+        <v>0.09505601853216428</v>
       </c>
       <c r="I41">
-        <v>1776.26502936155</v>
+        <v>1999.313237787011</v>
       </c>
       <c r="J41">
-        <v>8.44513397690082</v>
+        <v>9.505601853216428</v>
       </c>
       <c r="K41" s="3">
         <v>44346</v>
@@ -1920,7 +1920,7 @@
         <v>0.6896551724137929</v>
       </c>
       <c r="E42">
-        <v>0.6322607794081937</v>
+        <v>0.6249620517179951</v>
       </c>
       <c r="F42">
         <v>527868</v>
@@ -1929,13 +1929,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0.05739439300559923</v>
+        <v>0.0646931206957978</v>
       </c>
       <c r="I42">
-        <v>30296.66344707966</v>
+        <v>34149.42823544939</v>
       </c>
       <c r="J42">
-        <v>5.739439300559923</v>
+        <v>6.469312069579781</v>
       </c>
       <c r="K42" s="3">
         <v>44357</v>
@@ -1957,7 +1957,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="E43">
-        <v>0.6334626647959435</v>
+        <v>0.6231534479668554</v>
       </c>
       <c r="F43">
         <v>51190</v>
@@ -1966,13 +1966,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0.08082304948977082</v>
+        <v>0.09113226631885896</v>
       </c>
       <c r="I43">
-        <v>4137.331903381368</v>
+        <v>4665.06071286239</v>
       </c>
       <c r="J43">
-        <v>8.082304948977082</v>
+        <v>9.113226631885896</v>
       </c>
       <c r="K43" s="3">
         <v>44346</v>
@@ -1994,7 +1994,7 @@
         <v>0.5833333333333333</v>
       </c>
       <c r="E44">
-        <v>0.503982111998991</v>
+        <v>0.4943390108072028</v>
       </c>
       <c r="F44">
         <v>132283</v>
@@ -2003,13 +2003,13 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.07935122133434225</v>
+        <v>0.08899432252613043</v>
       </c>
       <c r="I44">
-        <v>10496.8176117708</v>
+        <v>11772.43596672411</v>
       </c>
       <c r="J44">
-        <v>7.935122133434225</v>
+        <v>8.899432252613043</v>
       </c>
       <c r="K44" s="3">
         <v>44353</v>
@@ -2031,7 +2031,7 @@
         <v>0.6764705882352939</v>
       </c>
       <c r="E45">
-        <v>0.5990806231566759</v>
+        <v>0.5929664251090369</v>
       </c>
       <c r="F45">
         <v>61053</v>
@@ -2040,13 +2040,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0.07738996507861806</v>
+        <v>0.08350416312625708</v>
       </c>
       <c r="I45">
-        <v>4724.889537944869</v>
+        <v>5098.179671347373</v>
       </c>
       <c r="J45">
-        <v>7.738996507861806</v>
+        <v>8.350416312625708</v>
       </c>
       <c r="K45" s="3">
         <v>44339</v>
@@ -2068,7 +2068,7 @@
         <v>0.6818181818181816</v>
       </c>
       <c r="E46">
-        <v>0.6143375386182391</v>
+        <v>0.6070015876778284</v>
       </c>
       <c r="F46">
         <v>114913</v>
@@ -2077,13 +2077,13 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0.0674806431999424</v>
+        <v>0.07481659414035313</v>
       </c>
       <c r="I46">
-        <v>7754.403152034982</v>
+        <v>8597.3992824504</v>
       </c>
       <c r="J46">
-        <v>6.74806431999424</v>
+        <v>7.481659414035313</v>
       </c>
       <c r="K46" s="3">
         <v>44339</v>
@@ -2105,7 +2105,7 @@
         <v>0.6730769230769226</v>
       </c>
       <c r="E47">
-        <v>0.5920190020292118</v>
+        <v>0.5832009223891256</v>
       </c>
       <c r="F47">
         <v>24012</v>
@@ -2114,13 +2114,13 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0.08105792104771081</v>
+        <v>0.089876000687797</v>
       </c>
       <c r="I47">
-        <v>1946.362800197632</v>
+        <v>2158.102528515381</v>
       </c>
       <c r="J47">
-        <v>8.105792104771082</v>
+        <v>8.987600068779699</v>
       </c>
       <c r="K47" s="3">
         <v>44339</v>
@@ -2142,7 +2142,7 @@
         <v>0.5</v>
       </c>
       <c r="E48">
-        <v>0.4149927685656723</v>
+        <v>0.4042394811924557</v>
       </c>
       <c r="F48">
         <v>53957</v>
@@ -2151,13 +2151,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0.0850072314343277</v>
+        <v>0.09576051880754427</v>
       </c>
       <c r="I48">
-        <v>4586.73518650202</v>
+        <v>5166.950313298667</v>
       </c>
       <c r="J48">
-        <v>8.50072314343277</v>
+        <v>9.576051880754427</v>
       </c>
       <c r="K48" s="3">
         <v>44332</v>
@@ -2179,7 +2179,7 @@
         <v>0.7631578947368419</v>
       </c>
       <c r="E49">
-        <v>0.6928455046737</v>
+        <v>0.6828675642668</v>
       </c>
       <c r="F49">
         <v>5213</v>
@@ -2188,13 +2188,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0.07031239006314194</v>
+        <v>0.08029033047004197</v>
       </c>
       <c r="I49">
-        <v>366.538489399159</v>
+        <v>418.5534927403288</v>
       </c>
       <c r="J49">
-        <v>7.031239006314194</v>
+        <v>8.029033047004198</v>
       </c>
       <c r="K49" s="3">
         <v>44332</v>
@@ -2216,7 +2216,7 @@
         <v>0.6562500000000001</v>
       </c>
       <c r="E50">
-        <v>0.5793539788720356</v>
+        <v>0.5690465398711914</v>
       </c>
       <c r="F50">
         <v>175538</v>
@@ -2225,13 +2225,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0.07689602112796456</v>
+        <v>0.08720346012880875</v>
       </c>
       <c r="I50">
-        <v>13498.17375676064</v>
+        <v>15307.52098409083</v>
       </c>
       <c r="J50">
-        <v>7.689602112796456</v>
+        <v>8.720346012880874</v>
       </c>
       <c r="K50" s="3">
         <v>44339</v>
@@ -2253,7 +2253,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="E51">
-        <v>0.5648030162514098</v>
+        <v>0.5570912413254416</v>
       </c>
       <c r="F51">
         <v>42938</v>
@@ -2262,13 +2262,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0.1018636504152569</v>
+        <v>0.1095754253412251</v>
       </c>
       <c r="I51">
-        <v>4373.821421530301</v>
+        <v>4704.949613301524</v>
       </c>
       <c r="J51">
-        <v>10.18636504152569</v>
+        <v>10.95754253412251</v>
       </c>
       <c r="K51" s="3">
         <v>44346</v>
@@ -2290,7 +2290,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="E52">
-        <v>0.5933996457516191</v>
+        <v>0.5831680875967479</v>
       </c>
       <c r="F52">
         <v>196870</v>
@@ -2299,13 +2299,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0.07326702091504767</v>
+        <v>0.08349857906991887</v>
       </c>
       <c r="I52">
-        <v>14424.07840754543</v>
+        <v>16438.36526149493</v>
       </c>
       <c r="J52">
-        <v>7.326702091504767</v>
+        <v>8.349857906991886</v>
       </c>
       <c r="K52" s="3">
         <v>44346</v>
@@ -2327,7 +2327,7 @@
         <v>0.75</v>
       </c>
       <c r="E53">
-        <v>0.6432946687924387</v>
+        <v>0.6343832540435686</v>
       </c>
       <c r="F53">
         <v>9594</v>
@@ -2336,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0.1067053312075613</v>
+        <v>0.1156167459564315</v>
       </c>
       <c r="I53">
-        <v>1023.730947605343</v>
+        <v>1109.227060706003</v>
       </c>
       <c r="J53">
-        <v>10.67053312075613</v>
+        <v>11.56167459564315</v>
       </c>
       <c r="K53" s="3">
         <v>44367</v>
@@ -2364,7 +2364,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="E54">
-        <v>0.5803402235576481</v>
+        <v>0.5709845794320599</v>
       </c>
       <c r="F54">
         <v>60481</v>
@@ -2373,13 +2373,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0.0863264431090186</v>
+        <v>0.09568208723460681</v>
       </c>
       <c r="I54">
-        <v>5221.109605676554</v>
+        <v>5786.948318036254</v>
       </c>
       <c r="J54">
-        <v>8.63264431090186</v>
+        <v>9.56820872346068</v>
       </c>
       <c r="K54" s="3">
         <v>44339</v>
@@ -2401,7 +2401,7 @@
         <v>0.7222222222222222</v>
       </c>
       <c r="E55">
-        <v>0.6410664395645225</v>
+        <v>0.6309474416726513</v>
       </c>
       <c r="F55">
         <v>56756</v>
@@ -2410,13 +2410,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0.08115578265769974</v>
+        <v>0.09127478054957094</v>
       </c>
       <c r="I55">
-        <v>4606.077600520406</v>
+        <v>5180.391444871449</v>
       </c>
       <c r="J55">
-        <v>8.115578265769974</v>
+        <v>9.127478054957095</v>
       </c>
       <c r="K55" s="3">
         <v>44360</v>
@@ -2438,7 +2438,7 @@
         <v>0.6750000000000003</v>
       </c>
       <c r="E56">
-        <v>0.5932107871712128</v>
+        <v>0.5817406526439458</v>
       </c>
       <c r="F56">
         <v>82919</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0.08178921282878748</v>
+        <v>0.09325934735605446</v>
       </c>
       <c r="I56">
-        <v>6781.879738550229</v>
+        <v>7732.971823416679</v>
       </c>
       <c r="J56">
-        <v>8.178921282878749</v>
+        <v>9.325934735605445</v>
       </c>
       <c r="K56" s="3">
         <v>44346</v>
@@ -2475,7 +2475,7 @@
         <v>0.7291666666666665</v>
       </c>
       <c r="E57">
-        <v>0.6348030203011228</v>
+        <v>0.6278833560567098</v>
       </c>
       <c r="F57">
         <v>34813</v>
@@ -2484,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>0.09436364636554373</v>
+        <v>0.1012833106099568</v>
       </c>
       <c r="I57">
-        <v>3285.081620923674</v>
+        <v>3525.975892264425</v>
       </c>
       <c r="J57">
-        <v>9.436364636554373</v>
+        <v>10.12833106099568</v>
       </c>
       <c r="K57" s="3">
         <v>44339</v>
@@ -2512,7 +2512,7 @@
         <v>0.7380952380952383</v>
       </c>
       <c r="E58">
-        <v>0.6280768316232228</v>
+        <v>0.6220723078045009</v>
       </c>
       <c r="F58">
         <v>21499</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>0.1100184064720154</v>
+        <v>0.1160229302907374</v>
       </c>
       <c r="I58">
-        <v>2365.28572074186</v>
+        <v>2494.376978320564</v>
       </c>
       <c r="J58">
-        <v>11.00184064720154</v>
+        <v>11.60229302907374</v>
       </c>
       <c r="K58" s="3">
         <v>44339</v>
@@ -2549,7 +2549,7 @@
         <v>0.6923076923076923</v>
       </c>
       <c r="E59">
-        <v>0.5918919997740404</v>
+        <v>0.5823130970032212</v>
       </c>
       <c r="F59">
         <v>22849</v>
@@ -2558,13 +2558,13 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>0.1004156925336519</v>
+        <v>0.1099945953044711</v>
       </c>
       <c r="I59">
-        <v>2294.398158701412</v>
+        <v>2513.26650811186</v>
       </c>
       <c r="J59">
-        <v>10.04156925336519</v>
+        <v>10.99945953044711</v>
       </c>
       <c r="K59" s="3">
         <v>44325</v>
@@ -2586,7 +2586,7 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="E60">
-        <v>0.5983055438667946</v>
+        <v>0.5873358699203305</v>
       </c>
       <c r="F60">
         <v>45227</v>
@@ -2595,13 +2595,13 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>0.1075768090743818</v>
+        <v>0.1185464830208459</v>
       </c>
       <c r="I60">
-        <v>4865.376344007067</v>
+        <v>5361.501787583798</v>
       </c>
       <c r="J60">
-        <v>10.75768090743818</v>
+        <v>11.85464830208459</v>
       </c>
       <c r="K60" s="3">
         <v>44332</v>
@@ -2623,7 +2623,7 @@
         <v>0.6875</v>
       </c>
       <c r="E61">
-        <v>0.6249608262067332</v>
+        <v>0.6165049057890623</v>
       </c>
       <c r="F61">
         <v>1074475</v>
@@ -2632,13 +2632,13 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0.06253917379326679</v>
+        <v>0.07099509421093775</v>
       </c>
       <c r="I61">
-        <v>67196.77876152033</v>
+        <v>76282.45385229733</v>
       </c>
       <c r="J61">
-        <v>6.253917379326679</v>
+        <v>7.099509421093774</v>
       </c>
       <c r="K61" s="3">
         <v>44343</v>
@@ -2660,7 +2660,7 @@
         <v>0.6551724137931034</v>
       </c>
       <c r="E62">
-        <v>0.5554788177467489</v>
+        <v>0.5462331074651481</v>
       </c>
       <c r="F62">
         <v>15004</v>
@@ -2669,13 +2669,13 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0.09969359604635453</v>
+        <v>0.1089393063279553</v>
       </c>
       <c r="I62">
-        <v>1495.802715079503</v>
+        <v>1634.525352144642</v>
       </c>
       <c r="J62">
-        <v>9.969359604635454</v>
+        <v>10.89393063279553</v>
       </c>
       <c r="K62" s="3">
         <v>44353</v>
@@ -2697,7 +2697,7 @@
         <v>0.7631578947368419</v>
       </c>
       <c r="E63">
-        <v>0.6861265924092589</v>
+        <v>0.6735970508442929</v>
       </c>
       <c r="F63">
         <v>27252</v>
@@ -2706,13 +2706,13 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0.07703130232758304</v>
+        <v>0.08956084389254904</v>
       </c>
       <c r="I63">
-        <v>2099.257051031293</v>
+        <v>2440.712117759746</v>
       </c>
       <c r="J63">
-        <v>7.703130232758304</v>
+        <v>8.956084389254905</v>
       </c>
       <c r="K63" s="3">
         <v>44339</v>
@@ -2734,7 +2734,7 @@
         <v>0.7173913043478262</v>
       </c>
       <c r="E64">
-        <v>0.6428167139001385</v>
+        <v>0.6352192867515367</v>
       </c>
       <c r="F64">
         <v>97294</v>
@@ -2743,13 +2743,13 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0.07457459044768766</v>
+        <v>0.08217201759628945</v>
       </c>
       <c r="I64">
-        <v>7255.660203017324</v>
+        <v>7994.844280013385</v>
       </c>
       <c r="J64">
-        <v>7.457459044768767</v>
+        <v>8.217201759628946</v>
       </c>
       <c r="K64" s="3">
         <v>44339</v>
@@ -2771,7 +2771,7 @@
         <v>0.736842105263158</v>
       </c>
       <c r="E65">
-        <v>0.6707875833115858</v>
+        <v>0.6601186825450899</v>
       </c>
       <c r="F65">
         <v>94030</v>
@@ -2780,13 +2780,13 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0.06605452195157213</v>
+        <v>0.07672342271806809</v>
       </c>
       <c r="I65">
-        <v>6211.106699106327</v>
+        <v>7214.303438179943</v>
       </c>
       <c r="J65">
-        <v>6.605452195157213</v>
+        <v>7.672342271806809</v>
       </c>
       <c r="K65" s="3">
         <v>44353</v>
@@ -2808,7 +2808,7 @@
         <v>0.6875</v>
       </c>
       <c r="E66">
-        <v>0.6244296999706793</v>
+        <v>0.6181046082687896</v>
       </c>
       <c r="F66">
         <v>227938</v>
@@ -2817,13 +2817,13 @@
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0.06307030002932068</v>
+        <v>0.06939539173121045</v>
       </c>
       <c r="I66">
-        <v>14376.1180480833</v>
+        <v>15817.84680042865</v>
       </c>
       <c r="J66">
-        <v>6.307030002932068</v>
+        <v>6.939539173121045</v>
       </c>
       <c r="K66" s="3">
         <v>44346</v>
@@ -2845,7 +2845,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="E67">
-        <v>0.6333587559197983</v>
+        <v>0.6242830844980016</v>
       </c>
       <c r="F67">
         <v>19946</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0.08092695836591601</v>
+        <v>0.09000262978771267</v>
       </c>
       <c r="I67">
-        <v>1614.169111566561</v>
+        <v>1795.192453745717</v>
       </c>
       <c r="J67">
-        <v>8.092695836591602</v>
+        <v>9.000262978771268</v>
       </c>
       <c r="K67" s="3">
         <v>44332</v>
@@ -2882,7 +2882,7 @@
         <v>0.5</v>
       </c>
       <c r="E68">
-        <v>0.4214463268720574</v>
+        <v>0.4108772418316013</v>
       </c>
       <c r="F68">
         <v>195069</v>
@@ -2891,13 +2891,13 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0.07855367312794259</v>
+        <v>0.08912275816839871</v>
       </c>
       <c r="I68">
-        <v>15323.38646339463</v>
+        <v>17385.08731315137</v>
       </c>
       <c r="J68">
-        <v>7.855367312794259</v>
+        <v>8.912275816839872</v>
       </c>
       <c r="K68" s="3">
         <v>44346</v>
@@ -2919,7 +2919,7 @@
         <v>0.7631578947368419</v>
       </c>
       <c r="E69">
-        <v>0.709406681820117</v>
+        <v>0.7062635663941661</v>
       </c>
       <c r="F69">
         <v>144836</v>
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0.05375121291672491</v>
+        <v>0.05689432834267583</v>
       </c>
       <c r="I69">
-        <v>7785.110674006769</v>
+        <v>8240.346939839796</v>
       </c>
       <c r="J69">
-        <v>5.375121291672491</v>
+        <v>5.689432834267583</v>
       </c>
       <c r="K69" s="3">
         <v>44346</v>
@@ -2956,7 +2956,7 @@
         <v>0.6764705882352939</v>
       </c>
       <c r="E70">
-        <v>0.579649449717629</v>
+        <v>0.572152533649366</v>
       </c>
       <c r="F70">
         <v>12701</v>
@@ -2965,13 +2965,13 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0.09682113851766494</v>
+        <v>0.1043180545859279</v>
       </c>
       <c r="I70">
-        <v>1229.725280312862</v>
+        <v>1324.94361129587</v>
       </c>
       <c r="J70">
-        <v>9.682113851766495</v>
+        <v>10.43180545859279</v>
       </c>
       <c r="K70" s="3">
         <v>44318</v>
@@ -2993,7 +2993,7 @@
         <v>0.7045454545454541</v>
       </c>
       <c r="E71">
-        <v>0.6059284770972532</v>
+        <v>0.5979578850556464</v>
       </c>
       <c r="F71">
         <v>39514</v>
@@ -3002,13 +3002,13 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0.09861697744820097</v>
+        <v>0.1065875694898077</v>
       </c>
       <c r="I71">
-        <v>3896.751246888213</v>
+        <v>4211.701220820263</v>
       </c>
       <c r="J71">
-        <v>9.861697744820097</v>
+        <v>10.65875694898077</v>
       </c>
       <c r="K71" s="3">
         <v>44353</v>
@@ -3030,7 +3030,7 @@
         <v>0.6470588235294114</v>
       </c>
       <c r="E72">
-        <v>0.5566609502158343</v>
+        <v>0.5482112950374993</v>
       </c>
       <c r="F72">
         <v>60399</v>
@@ -3039,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0.09039787331357707</v>
+        <v>0.09884752849191203</v>
       </c>
       <c r="I72">
-        <v>5459.941150266742</v>
+        <v>5970.291873382995</v>
       </c>
       <c r="J72">
-        <v>9.039787331357708</v>
+        <v>9.884752849191203</v>
       </c>
       <c r="K72" s="3">
         <v>44339</v>
@@ -3067,7 +3067,7 @@
         <v>0.5937499999999998</v>
       </c>
       <c r="E73">
-        <v>0.5012627912566799</v>
+        <v>0.4937879413342172</v>
       </c>
       <c r="F73">
         <v>13430</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0.09248720874331984</v>
+        <v>0.09996205866578256</v>
       </c>
       <c r="I73">
-        <v>1242.103213422786</v>
+        <v>1342.49044788146</v>
       </c>
       <c r="J73">
-        <v>9.248720874331983</v>
+        <v>9.996205866578256</v>
       </c>
       <c r="K73" s="3">
         <v>44353</v>
@@ -3104,7 +3104,7 @@
         <v>0.6250000000000004</v>
       </c>
       <c r="E74">
-        <v>0.5616515511819191</v>
+        <v>0.5534552205500415</v>
       </c>
       <c r="F74">
         <v>39345</v>
@@ -3113,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>0.06334844881808133</v>
+        <v>0.07154477944995896</v>
       </c>
       <c r="I74">
-        <v>2492.44471874741</v>
+        <v>2814.929347458635</v>
       </c>
       <c r="J74">
-        <v>6.334844881808133</v>
+        <v>7.154477944995897</v>
       </c>
       <c r="K74" s="3">
         <v>44311</v>
@@ -3141,7 +3141,7 @@
         <v>0.6578947368421049</v>
       </c>
       <c r="E75">
-        <v>0.5839709911906595</v>
+        <v>0.5738927247305231</v>
       </c>
       <c r="F75">
         <v>178433</v>
@@ -3150,13 +3150,13 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0.07392374565144533</v>
+        <v>0.08400201211158176</v>
       </c>
       <c r="I75">
-        <v>13190.43570782435</v>
+        <v>14988.73102710587</v>
       </c>
       <c r="J75">
-        <v>7.392374565144532</v>
+        <v>8.400201211158176</v>
       </c>
       <c r="K75" s="3">
         <v>44360</v>
@@ -3178,7 +3178,7 @@
         <v>0.6578947368421049</v>
       </c>
       <c r="E76">
-        <v>0.5482791116697932</v>
+        <v>0.5415014791736331</v>
       </c>
       <c r="F76">
         <v>20557</v>
@@ -3187,13 +3187,13 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0.1096156251723117</v>
+        <v>0.1163932576684718</v>
       </c>
       <c r="I76">
-        <v>2253.368406667212</v>
+        <v>2392.696197890774</v>
       </c>
       <c r="J76">
-        <v>10.96156251723117</v>
+        <v>11.63932576684718</v>
       </c>
       <c r="K76" s="3">
         <v>44346</v>
@@ -3215,7 +3215,7 @@
         <v>0.6176470588235301</v>
       </c>
       <c r="E77">
-        <v>0.5475865561543231</v>
+        <v>0.5364588017274713</v>
       </c>
       <c r="F77">
         <v>143118</v>
@@ -3224,13 +3224,13 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0.07006050266920705</v>
+        <v>0.08118825709605881</v>
       </c>
       <c r="I77">
-        <v>10026.91902101157</v>
+        <v>11619.50097907375</v>
       </c>
       <c r="J77">
-        <v>7.006050266920704</v>
+        <v>8.118825709605881</v>
       </c>
       <c r="K77" s="3">
         <v>44339</v>
@@ -3252,7 +3252,7 @@
         <v>0.6764705882352939</v>
       </c>
       <c r="E78">
-        <v>0.5914410734888216</v>
+        <v>0.5807926653993123</v>
       </c>
       <c r="F78">
         <v>44997</v>
@@ -3261,13 +3261,13 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0.08502951474647236</v>
+        <v>0.09567792283598164</v>
       </c>
       <c r="I78">
-        <v>3826.073075047017</v>
+        <v>4305.219493850666</v>
       </c>
       <c r="J78">
-        <v>8.502951474647237</v>
+        <v>9.567792283598164</v>
       </c>
       <c r="K78" s="3">
         <v>44332</v>
@@ -3289,7 +3289,7 @@
         <v>0.6428571428571428</v>
       </c>
       <c r="E79">
-        <v>0.561050430299357</v>
+        <v>0.5467543929098572</v>
       </c>
       <c r="F79">
         <v>132596</v>
@@ -3298,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0.08180671255778582</v>
+        <v>0.09610274994728563</v>
       </c>
       <c r="I79">
-        <v>10847.24285831217</v>
+        <v>12742.84023201029</v>
       </c>
       <c r="J79">
-        <v>8.180671255778583</v>
+        <v>9.610274994728563</v>
       </c>
       <c r="K79" s="3">
         <v>44332</v>
@@ -3326,7 +3326,7 @@
         <v>0.6666666666666667</v>
       </c>
       <c r="E80">
-        <v>0.5904673614879143</v>
+        <v>0.5820170555544518</v>
       </c>
       <c r="F80">
         <v>91077</v>
@@ -3335,13 +3335,13 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>0.0761993051787524</v>
+        <v>0.08464961111221492</v>
       </c>
       <c r="I80">
-        <v>6940.004117765232</v>
+        <v>7709.632631267198</v>
       </c>
       <c r="J80">
-        <v>7.61993051787524</v>
+        <v>8.464961111221491</v>
       </c>
       <c r="K80" s="3">
         <v>44353</v>
@@ -3363,7 +3363,7 @@
         <v>0.6842105263157898</v>
       </c>
       <c r="E81">
-        <v>0.6016302690582126</v>
+        <v>0.5887698292991387</v>
       </c>
       <c r="F81">
         <v>140296</v>
@@ -3372,13 +3372,13 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>0.08258025725757723</v>
+        <v>0.09544069701665114</v>
       </c>
       <c r="I81">
-        <v>11585.67977220905</v>
+        <v>13389.94802864809</v>
       </c>
       <c r="J81">
-        <v>8.258025725757722</v>
+        <v>9.544069701665114</v>
       </c>
       <c r="K81" s="3">
         <v>44346</v>
@@ -3400,7 +3400,7 @@
         <v>0.735294117647059</v>
       </c>
       <c r="E82">
-        <v>0.6476914668061176</v>
+        <v>0.6359165383803456</v>
       </c>
       <c r="F82">
         <v>66599</v>
@@ -3409,13 +3409,13 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0.08760265084094143</v>
+        <v>0.09937757926671342</v>
       </c>
       <c r="I82">
-        <v>5834.248943355859</v>
+        <v>6618.447401583847</v>
       </c>
       <c r="J82">
-        <v>8.760265084094144</v>
+        <v>9.937757926671342</v>
       </c>
       <c r="K82" s="3">
         <v>44339</v>
@@ -3437,7 +3437,7 @@
         <v>0.6944444444444442</v>
       </c>
       <c r="E83">
-        <v>0.6156005808412176</v>
+        <v>0.6030881799141444</v>
       </c>
       <c r="F83">
         <v>63385</v>
@@ -3446,13 +3446,13 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0.07884386360322659</v>
+        <v>0.09135626453029977</v>
       </c>
       <c r="I83">
-        <v>4997.518294490517</v>
+        <v>5790.616827253051</v>
       </c>
       <c r="J83">
-        <v>7.88438636032266</v>
+        <v>9.135626453029976</v>
       </c>
       <c r="K83" s="3">
         <v>44346</v>
@@ -3474,7 +3474,7 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="E84">
-        <v>0.624127293479551</v>
+        <v>0.6133176561364624</v>
       </c>
       <c r="F84">
         <v>35076</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0.08175505946162542</v>
+        <v>0.09256469680471402</v>
       </c>
       <c r="I84">
-        <v>2867.640465675973</v>
+        <v>3246.799305122149</v>
       </c>
       <c r="J84">
-        <v>8.175505946162541</v>
+        <v>9.256469680471401</v>
       </c>
       <c r="K84" s="3">
         <v>44332</v>
@@ -3511,7 +3511,7 @@
         <v>0.6999999999999997</v>
       </c>
       <c r="E85">
-        <v>0.6274122192451214</v>
+        <v>0.6142427951970632</v>
       </c>
       <c r="F85">
         <v>61588</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0.07258778075487837</v>
+        <v>0.08575720480293658</v>
       </c>
       <c r="I85">
-        <v>4470.536241131449</v>
+        <v>5281.614729403258</v>
       </c>
       <c r="J85">
-        <v>7.258778075487838</v>
+        <v>8.575720480293658</v>
       </c>
       <c r="K85" s="3">
         <v>44346</v>
@@ -3548,7 +3548,7 @@
         <v>0.6470588235294114</v>
       </c>
       <c r="E86">
-        <v>0.5649766052278228</v>
+        <v>0.5559713632134904</v>
       </c>
       <c r="F86">
         <v>45781</v>
@@ -3557,13 +3557,13 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <v>0.08208221830158857</v>
+        <v>0.09108746031592097</v>
       </c>
       <c r="I86">
-        <v>3757.806036065027</v>
+        <v>4170.075020723178</v>
       </c>
       <c r="J86">
-        <v>8.208221830158857</v>
+        <v>9.108746031592096</v>
       </c>
       <c r="K86" s="3">
         <v>44346</v>
@@ -3585,7 +3585,7 @@
         <v>0.7187500000000003</v>
       </c>
       <c r="E87">
-        <v>0.6462352037812994</v>
+        <v>0.6353698845544498</v>
       </c>
       <c r="F87">
         <v>71971</v>
@@ -3594,13 +3594,13 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>0.07251479621870094</v>
+        <v>0.08338011544555057</v>
       </c>
       <c r="I87">
-        <v>5218.962398656126</v>
+        <v>6000.95028873172</v>
       </c>
       <c r="J87">
-        <v>7.251479621870094</v>
+        <v>8.338011544555057</v>
       </c>
       <c r="K87" s="3">
         <v>44346</v>
@@ -3622,7 +3622,7 @@
         <v>0.6071428571428579</v>
       </c>
       <c r="E88">
-        <v>0.4801523250172658</v>
+        <v>0.4711013921623528</v>
       </c>
       <c r="F88">
         <v>14260</v>
@@ -3631,13 +3631,13 @@
         <v>0</v>
       </c>
       <c r="H88">
-        <v>0.1269905321255921</v>
+        <v>0.1360414649805051</v>
       </c>
       <c r="I88">
-        <v>1810.884988110943</v>
+        <v>1939.951290622002</v>
       </c>
       <c r="J88">
-        <v>12.69905321255921</v>
+        <v>13.60414649805051</v>
       </c>
       <c r="K88" s="3">
         <v>44318</v>
@@ -3659,7 +3659,7 @@
         <v>0.6904761904761905</v>
       </c>
       <c r="E89">
-        <v>0.5951891524941717</v>
+        <v>0.5896653827106607</v>
       </c>
       <c r="F89">
         <v>33775</v>
@@ -3668,13 +3668,13 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0.09528703798201876</v>
+        <v>0.1008108077655298</v>
       </c>
       <c r="I89">
-        <v>3218.319707842684</v>
+        <v>3404.885032280768</v>
       </c>
       <c r="J89">
-        <v>9.528703798201876</v>
+        <v>10.08108077655298</v>
       </c>
       <c r="K89" s="3">
         <v>44339</v>
@@ -3696,7 +3696,7 @@
         <v>0.6333333333333338</v>
       </c>
       <c r="E90">
-        <v>0.530552502099276</v>
+        <v>0.5227245392939708</v>
       </c>
       <c r="F90">
         <v>4095</v>
@@ -3705,13 +3705,13 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>0.1027808312340578</v>
+        <v>0.110608794039363</v>
       </c>
       <c r="I90">
-        <v>420.8875039034667</v>
+        <v>452.9430115911914</v>
       </c>
       <c r="J90">
-        <v>10.27808312340578</v>
+        <v>11.0608794039363</v>
       </c>
       <c r="K90" s="3">
         <v>44346</v>
@@ -3733,7 +3733,7 @@
         <v>0.6500000000000004</v>
       </c>
       <c r="E91">
-        <v>0.5829781181681473</v>
+        <v>0.573367379207359</v>
       </c>
       <c r="F91">
         <v>231053</v>
@@ -3742,13 +3742,13 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0.06702188183185309</v>
+        <v>0.07663262079264133</v>
       </c>
       <c r="I91">
-        <v>15485.60686289515</v>
+        <v>17706.19693200216</v>
       </c>
       <c r="J91">
-        <v>6.702188183185309</v>
+        <v>7.663262079264133</v>
       </c>
       <c r="K91" s="3">
         <v>44346</v>
@@ -3770,7 +3770,7 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="E92">
-        <v>0.6369035599073825</v>
+        <v>0.62682971792454</v>
       </c>
       <c r="F92">
         <v>44479</v>
@@ -3779,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0.07738215437833185</v>
+        <v>0.08745599636117429</v>
       </c>
       <c r="I92">
-        <v>3441.880844593822</v>
+        <v>3889.955262148671</v>
       </c>
       <c r="J92">
-        <v>7.738215437833185</v>
+        <v>8.745599636117429</v>
       </c>
       <c r="K92" s="3">
         <v>44353</v>
@@ -3807,7 +3807,7 @@
         <v>0.7435897435897436</v>
       </c>
       <c r="E93">
-        <v>0.6824757446049614</v>
+        <v>0.677295600127801</v>
       </c>
       <c r="F93">
         <v>1069079</v>
@@ -3816,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0.0611139989847822</v>
+        <v>0.06629414346194262</v>
       </c>
       <c r="I93">
-        <v>65335.69292065197</v>
+        <v>70873.67659815015</v>
       </c>
       <c r="J93">
-        <v>6.11139989847822</v>
+        <v>6.629414346194262</v>
       </c>
       <c r="K93" s="3">
         <v>44357</v>
@@ -3844,7 +3844,7 @@
         <v>0.6600000000000006</v>
       </c>
       <c r="E94">
-        <v>0.5719522136276958</v>
+        <v>0.5639084157779649</v>
       </c>
       <c r="F94">
         <v>19898</v>
@@ -3853,13 +3853,13 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0.08804778637230482</v>
+        <v>0.09609158422203568</v>
       </c>
       <c r="I94">
-        <v>1751.974853236121</v>
+        <v>1912.030342850066</v>
       </c>
       <c r="J94">
-        <v>8.804778637230481</v>
+        <v>9.609158422203567</v>
       </c>
       <c r="K94" s="3">
         <v>44353</v>
@@ -3881,7 +3881,7 @@
         <v>0.7199999999999999</v>
       </c>
       <c r="E95">
-        <v>0.6250755668251763</v>
+        <v>0.6159615177486699</v>
       </c>
       <c r="F95">
         <v>11922</v>
@@ -3890,13 +3890,13 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>0.09492443317482358</v>
+        <v>0.1040384822513299</v>
       </c>
       <c r="I95">
-        <v>1131.689092310247</v>
+        <v>1240.346785400356</v>
       </c>
       <c r="J95">
-        <v>9.492443317482358</v>
+        <v>10.403848225133</v>
       </c>
       <c r="K95" s="3">
         <v>44360</v>
@@ -3918,7 +3918,7 @@
         <v>0.725806451612903</v>
       </c>
       <c r="E96">
-        <v>0.6513663962254804</v>
+        <v>0.6450357981735202</v>
       </c>
       <c r="F96">
         <v>54925</v>
@@ -3927,13 +3927,13 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <v>0.0744400553874226</v>
+        <v>0.08077065343938283</v>
       </c>
       <c r="I96">
-        <v>4088.620042154186</v>
+        <v>4436.328140158103</v>
       </c>
       <c r="J96">
-        <v>7.44400553874226</v>
+        <v>8.077065343938283</v>
       </c>
       <c r="K96" s="3">
         <v>44360</v>
@@ -3955,7 +3955,7 @@
         <v>0.6</v>
       </c>
       <c r="E97">
-        <v>0.5488685692502047</v>
+        <v>0.5390234864292119</v>
       </c>
       <c r="F97">
         <v>123603</v>
@@ -3964,13 +3964,13 @@
         <v>0</v>
       </c>
       <c r="H97">
-        <v>0.05113143074979532</v>
+        <v>0.06097651357078804</v>
       </c>
       <c r="I97">
-        <v>6319.99823496695</v>
+        <v>7536.880006890114</v>
       </c>
       <c r="J97">
-        <v>5.113143074979531</v>
+        <v>6.097651357078804</v>
       </c>
       <c r="K97" s="3">
         <v>44339</v>
@@ -3992,7 +3992,7 @@
         <v>0.6333333333333338</v>
       </c>
       <c r="E98">
-        <v>0.5582158869301973</v>
+        <v>0.5479721269728398</v>
       </c>
       <c r="F98">
         <v>68469</v>
@@ -4001,13 +4001,13 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0.07511744640313645</v>
+        <v>0.08536120636049394</v>
       </c>
       <c r="I98">
-        <v>5143.216437776349</v>
+        <v>5844.59643829666</v>
       </c>
       <c r="J98">
-        <v>7.511744640313644</v>
+        <v>8.536120636049393</v>
       </c>
       <c r="K98" s="3">
         <v>44346</v>
@@ -4029,7 +4029,7 @@
         <v>0.7058823529411764</v>
       </c>
       <c r="E99">
-        <v>0.6322283079864554</v>
+        <v>0.6205770746428965</v>
       </c>
       <c r="F99">
         <v>81435</v>
@@ -4038,13 +4038,13 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>0.07365404495472105</v>
+        <v>0.08530527829827994</v>
       </c>
       <c r="I99">
-        <v>5998.017150887709</v>
+        <v>6946.835338220427</v>
       </c>
       <c r="J99">
-        <v>7.365404495472106</v>
+        <v>8.530527829827994</v>
       </c>
       <c r="K99" s="3">
         <v>44339</v>
@@ -4066,7 +4066,7 @@
         <v>0.6818181818181816</v>
       </c>
       <c r="E100">
-        <v>0.5760355815115245</v>
+        <v>0.5653611896017969</v>
       </c>
       <c r="F100">
         <v>37602</v>
@@ -4075,13 +4075,13 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0.1057826003066571</v>
+        <v>0.1164569922163846</v>
       </c>
       <c r="I100">
-        <v>3977.63733673092</v>
+        <v>4379.015821320494</v>
       </c>
       <c r="J100">
-        <v>10.57826003066571</v>
+        <v>11.64569922163846</v>
       </c>
       <c r="K100" s="3">
         <v>44346</v>
@@ -4103,7 +4103,7 @@
         <v>0.6944444444444442</v>
       </c>
       <c r="E101">
-        <v>0.5787131835427402</v>
+        <v>0.570228386290884</v>
       </c>
       <c r="F101">
         <v>17760</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <v>0.1157312609017041</v>
+        <v>0.1242160581535602</v>
       </c>
       <c r="I101">
-        <v>2055.387193614264</v>
+        <v>2206.077192807229</v>
       </c>
       <c r="J101">
-        <v>11.57312609017041</v>
+        <v>12.42160581535602</v>
       </c>
       <c r="K101" s="3">
         <v>44339</v>
